--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60273.69280970575</v>
+        <v>11994464.86913143</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60273.69280970575</v>
+        <v>11994464.86913143</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1045.892617163674</v>
+        <v>67411.87201860336</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1045.892617163674</v>
+        <v>67411.87201860336</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959581028.0824987</v>
+        <v>39876914.48582318</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8515.235704396719</v>
+        <v>965816.0576385234</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15870.76853618893</v>
+        <v>1751803.176646081</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23226.30136798114</v>
+        <v>2537790.295653642</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30581.83419977334</v>
+        <v>3323777.414661201</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37937.36703156555</v>
+        <v>4109764.533668759</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45292.89986335775</v>
+        <v>4895751.652676317</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52648.43269514995</v>
+        <v>5681738.771683873</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60003.96552694214</v>
+        <v>6467725.890691428</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67359.49835873433</v>
+        <v>7253713.009698982</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>74715.03119052651</v>
+        <v>8039700.128706538</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82070.56402231868</v>
+        <v>8825687.247714097</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89426.0968541106</v>
+        <v>9611674.366721706</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>96781.62968590278</v>
+        <v>10397661.48572927</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>104137.1625176949</v>
+        <v>11183648.60473684</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>111492.6953494871</v>
+        <v>11969635.7237444</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>400</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
